--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col4a3-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col4a3-Itgav.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.07529266666666666</v>
+        <v>0.9568136666666667</v>
       </c>
       <c r="H2">
-        <v>0.225878</v>
+        <v>2.870441</v>
       </c>
       <c r="I2">
-        <v>0.008636301470765068</v>
+        <v>0.09967139189263423</v>
       </c>
       <c r="J2">
-        <v>0.008636301470765068</v>
+        <v>0.09967139189263421</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.09934133333334</v>
+        <v>3.759736666666667</v>
       </c>
       <c r="N2">
-        <v>63.29802400000001</v>
+        <v>11.27921</v>
       </c>
       <c r="O2">
-        <v>0.2917236204149438</v>
+        <v>0.0683751702595819</v>
       </c>
       <c r="P2">
-        <v>0.2917236204149438</v>
+        <v>0.06837517025958188</v>
       </c>
       <c r="Q2">
-        <v>1.588625673896889</v>
+        <v>3.597367425734444</v>
       </c>
       <c r="R2">
-        <v>14.297631065072</v>
+        <v>32.37630683160999</v>
       </c>
       <c r="S2">
-        <v>0.002519413132046489</v>
+        <v>0.006815048390668376</v>
       </c>
       <c r="T2">
-        <v>0.00251941313204649</v>
+        <v>0.006815048390668374</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.07529266666666666</v>
+        <v>0.9568136666666667</v>
       </c>
       <c r="H3">
-        <v>0.225878</v>
+        <v>2.870441</v>
       </c>
       <c r="I3">
-        <v>0.008636301470765068</v>
+        <v>0.09967139189263423</v>
       </c>
       <c r="J3">
-        <v>0.008636301470765068</v>
+        <v>0.09967139189263421</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>107.458313</v>
       </c>
       <c r="O3">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294648</v>
       </c>
       <c r="P3">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294647</v>
       </c>
       <c r="Q3">
-        <v>2.696940980423777</v>
+        <v>34.27252749178145</v>
       </c>
       <c r="R3">
-        <v>24.272468823814</v>
+        <v>308.452747426033</v>
       </c>
       <c r="S3">
-        <v>0.004277098522376654</v>
+        <v>0.06492773900606415</v>
       </c>
       <c r="T3">
-        <v>0.004277098522376655</v>
+        <v>0.06492773900606412</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.07529266666666666</v>
+        <v>0.9568136666666667</v>
       </c>
       <c r="H4">
-        <v>0.225878</v>
+        <v>2.870441</v>
       </c>
       <c r="I4">
-        <v>0.008636301470765068</v>
+        <v>0.09967139189263423</v>
       </c>
       <c r="J4">
-        <v>0.008636301470765068</v>
+        <v>0.09967139189263421</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>46.22309</v>
       </c>
       <c r="O4">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="P4">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="Q4">
-        <v>1.160086569224444</v>
+        <v>14.74229474252111</v>
       </c>
       <c r="R4">
-        <v>10.44077912302</v>
+        <v>132.68065268269</v>
       </c>
       <c r="S4">
-        <v>0.001839789816341925</v>
+        <v>0.02792860449590171</v>
       </c>
       <c r="T4">
-        <v>0.001839789816341925</v>
+        <v>0.0279286044959017</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>22.726216</v>
       </c>
       <c r="I5">
-        <v>0.868922394680866</v>
+        <v>0.789130862182032</v>
       </c>
       <c r="J5">
-        <v>0.868922394680866</v>
+        <v>0.789130862182032</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.09934133333334</v>
+        <v>3.759736666666667</v>
       </c>
       <c r="N5">
-        <v>63.29802400000001</v>
+        <v>11.27921</v>
       </c>
       <c r="O5">
-        <v>0.2917236204149438</v>
+        <v>0.0683751702595819</v>
       </c>
       <c r="P5">
-        <v>0.2917236204149438</v>
+        <v>0.06837517025958188</v>
       </c>
       <c r="Q5">
-        <v>159.8360628663538</v>
+        <v>28.48152919659556</v>
       </c>
       <c r="R5">
-        <v>1438.524565797184</v>
+        <v>256.33376276936</v>
       </c>
       <c r="S5">
-        <v>0.2534851868359249</v>
+        <v>0.05395695705878709</v>
       </c>
       <c r="T5">
-        <v>0.2534851868359249</v>
+        <v>0.05395695705878709</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>22.726216</v>
       </c>
       <c r="I6">
-        <v>0.868922394680866</v>
+        <v>0.789130862182032</v>
       </c>
       <c r="J6">
-        <v>0.868922394680866</v>
+        <v>0.789130862182032</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>107.458313</v>
       </c>
       <c r="O6">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294648</v>
       </c>
       <c r="P6">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294647</v>
       </c>
       <c r="Q6">
         <v>271.3467591370675</v>
@@ -818,10 +818,10 @@
         <v>2442.120832233608</v>
       </c>
       <c r="S6">
-        <v>0.4303308196141841</v>
+        <v>0.5140540498980606</v>
       </c>
       <c r="T6">
-        <v>0.4303308196141842</v>
+        <v>0.5140540498980605</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>22.726216</v>
       </c>
       <c r="I7">
-        <v>0.868922394680866</v>
+        <v>0.789130862182032</v>
       </c>
       <c r="J7">
-        <v>0.868922394680866</v>
+        <v>0.789130862182032</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>46.22309</v>
       </c>
       <c r="O7">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="P7">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="Q7">
         <v>116.7195475030489</v>
@@ -880,10 +880,10 @@
         <v>1050.47592752744</v>
       </c>
       <c r="S7">
-        <v>0.185106388230757</v>
+        <v>0.2211198552251843</v>
       </c>
       <c r="T7">
-        <v>0.185106388230757</v>
+        <v>0.2211198552251843</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>3.202389</v>
       </c>
       <c r="I8">
-        <v>0.1224413038483689</v>
+        <v>0.1111977459253338</v>
       </c>
       <c r="J8">
-        <v>0.1224413038483689</v>
+        <v>0.1111977459253338</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.09934133333334</v>
+        <v>3.759736666666667</v>
       </c>
       <c r="N8">
-        <v>63.29802400000001</v>
+        <v>11.27921</v>
       </c>
       <c r="O8">
-        <v>0.2917236204149438</v>
+        <v>0.0683751702595819</v>
       </c>
       <c r="P8">
-        <v>0.2917236204149438</v>
+        <v>0.06837517025958188</v>
       </c>
       <c r="Q8">
-        <v>22.522766197704</v>
+        <v>4.01337978141</v>
       </c>
       <c r="R8">
-        <v>202.704895779336</v>
+        <v>36.12041803269</v>
       </c>
       <c r="S8">
-        <v>0.03571902044697237</v>
+        <v>0.007603164810126427</v>
       </c>
       <c r="T8">
-        <v>0.03571902044697238</v>
+        <v>0.007603164810126425</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>3.202389</v>
       </c>
       <c r="I9">
-        <v>0.1224413038483689</v>
+        <v>0.1111977459253338</v>
       </c>
       <c r="J9">
-        <v>0.1224413038483689</v>
+        <v>0.1111977459253338</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>107.458313</v>
       </c>
       <c r="O9">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294648</v>
       </c>
       <c r="P9">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294647</v>
       </c>
       <c r="Q9">
         <v>38.235924389973</v>
@@ -1004,10 +1004,10 @@
         <v>344.123319509757</v>
       </c>
       <c r="S9">
-        <v>0.06063863351001537</v>
+        <v>0.07243621352534009</v>
       </c>
       <c r="T9">
-        <v>0.06063863351001537</v>
+        <v>0.07243621352534008</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>3.202389</v>
       </c>
       <c r="I10">
-        <v>0.1224413038483689</v>
+        <v>0.1111977459253338</v>
       </c>
       <c r="J10">
-        <v>0.1224413038483689</v>
+        <v>0.1111977459253338</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>46.22309</v>
       </c>
       <c r="O10">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="P10">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="Q10">
         <v>16.44714610689</v>
@@ -1066,10 +1066,10 @@
         <v>148.02431496201</v>
       </c>
       <c r="S10">
-        <v>0.02608364989138119</v>
+        <v>0.03115836758986727</v>
       </c>
       <c r="T10">
-        <v>0.02608364989138119</v>
+        <v>0.03115836758986726</v>
       </c>
     </row>
   </sheetData>
